--- a/Software/BigNumberDraft.xlsx
+++ b/Software/BigNumberDraft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\alarmClock\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6FCB14-E48A-48C9-986F-C78FC651F236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB86459-FD95-44E7-A5A3-DC665286478D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" xr2:uid="{6DD79D00-D104-49DC-A001-4F63DD6659A6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1">
   <si>
     <t>x</t>
   </si>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92C7B95-F793-4F58-9873-0A0450FBBD72}">
   <dimension ref="A1:CQ317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH86" sqref="AH86"/>
+    <sheetView tabSelected="1" topLeftCell="N9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AR30" sqref="AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2594,6 +2594,58 @@
       <c r="CP17" s="1"/>
       <c r="CQ17" s="1"/>
     </row>
+    <row r="27" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
@@ -2624,6 +2676,21 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
+      <c r="AJ31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -2659,8 +2726,17 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -2698,8 +2774,17 @@
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -2727,8 +2812,15 @@
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -2757,7 +2849,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -2786,7 +2878,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -2815,7 +2907,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
@@ -2844,7 +2936,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -2873,7 +2965,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -2902,7 +2994,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
@@ -2931,7 +3023,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -2960,7 +3052,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -2989,7 +3081,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -3028,7 +3120,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3063,7 +3155,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
